--- a/Maven_Project/src/main/resources/excelread.xlsx
+++ b/Maven_Project/src/main/resources/excelread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\My-Java\Maven_Project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C6167C-E906-4DD6-9D69-BFC24DB24E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147286A-8C5A-463E-9FAE-FD02B10349D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2952" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{AE7F5542-5630-4F5F-BE8D-F79B7A0CF380}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
